--- a/biology/Botanique/Hydrangea_involucrata/Hydrangea_involucrata.xlsx
+++ b/biology/Botanique/Hydrangea_involucrata/Hydrangea_involucrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrangea involucrata est une espèce du genre Hydrangea originaire du Japon et de Taïwan.
 Synonyme : Hydrangea longifolia Hayata
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbuste à port étalé, caduc, de moins de 2 m de haut (généralement en variétés horticoles de moins de 1 m).
 Les feuilles sont vert moyen, larges, ovales et très velues.
 En été, la plante produit des inflorescence à petites fleurs fertiles internes bleues ou roses, entourées de grandes fleurs stériles bleu pâle ou blanches (vert pâle pour la variété 'viridescens').
-L'espèce compte 2n = 30 chromosomes[2].
+L'espèce compte 2n = 30 chromosomes.
 </t>
         </is>
       </c>
@@ -546,11 +560,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce utilisée pour comme arbuste ornemental en situation ombragée qui se trouve assez aisément en France
-De nombreuses variétés et hybrides horticoles sont disponibles[3], dont :
-Hydrangea Involucrata 'Blue Bunny' [4]
+De nombreuses variétés et hybrides horticoles sont disponibles, dont :
+Hydrangea Involucrata 'Blue Bunny' 
 Hydrangea involucrata 'Hortensis'
 Hydrangea involucrata 'Late love'
 Hydrangea involucrata 'Mihara Kokonoe Tama'
@@ -559,7 +575,7 @@
 Hydrangea involucrata 'Sterilis'
 Hydrangea involucrata 'Toraku Tama'
 Hydrangea involucrata 'Viridescens'
-Hydrangea involucrata 'Wim Ruten' [5]
+Hydrangea involucrata 'Wim Ruten' 
 Hydrangea involucrata 'Yokudanka'
 Hydrangea involucrata 'Yoraku Tama'
 Hydrangea involucrata × aspera (croisement Hydrangea involucrata avec Hydrangea aspera)
